--- a/model_code/UMLTools.xlsx
+++ b/model_code/UMLTools.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.s.dillon\Desktop\NREIP MtC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C92709C-6DCA-45E8-AB52-2751D536A00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="19200" windowHeight="6765"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>brian.s.dillon</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>brian.s.dillon:</t>
         </r>
@@ -46,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 - Few collaborators
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>brian.s.dillon:</t>
         </r>
@@ -72,14 +73,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Approximate cost based on 3 devs at NSWCDD with .Net structure.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>brian.s.dillon:</t>
         </r>
@@ -96,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Full XML schema at
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>brian.s.dillon:</t>
         </r>
@@ -121,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 UML2, BPMN2, XMI, MDA, SysML, TOGAF, SoaML, UML Testing Profile</t>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>ArgoUML</t>
   </si>
@@ -336,16 +337,43 @@
     <t>Supports UML XMI, EMF, MOF XMI, Eclipse UML2</t>
   </si>
   <si>
-    <t>EAP</t>
-  </si>
-  <si>
     <t>$60/user-yr</t>
+  </si>
+  <si>
+    <t>EAP &amp; images</t>
+  </si>
+  <si>
+    <t>Proprietary</t>
+  </si>
+  <si>
+    <t>CDML</t>
+  </si>
+  <si>
+    <t>Visio imports</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Limited to sequence diagrams</t>
+  </si>
+  <si>
+    <t>Stack overflow question on point</t>
+  </si>
+  <si>
+    <t>Eclipse Foundation</t>
+  </si>
+  <si>
+    <t>UML2</t>
+  </si>
+  <si>
+    <t>UML2 import</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,14 +394,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,14 +712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +794,9 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -955,7 +986,10 @@
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -966,7 +1000,13 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -997,11 +1037,23 @@
       <c r="B30" t="s">
         <v>32</v>
       </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1092,21 +1144,42 @@
         <v>54</v>
       </c>
     </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="G21" r:id="rId3" display="Supports yFiles"/>
-    <hyperlink ref="G43" r:id="rId4" display="Supports yFiles"/>
-    <hyperlink ref="C44" r:id="rId5"/>
-    <hyperlink ref="G22" r:id="rId6"/>
-    <hyperlink ref="C28" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="C21" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="C26" r:id="rId11"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G21" r:id="rId3" display="Supports yFiles" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G43" r:id="rId4" display="Supports yFiles" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C44" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C46" r:id="rId12" xr:uid="{E66829EB-485D-4027-AA33-17E8A5C248CB}"/>
+    <hyperlink ref="C47" r:id="rId13" xr:uid="{5F32B5BC-AF91-41EE-B76F-EBB331DCB1A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>